--- a/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
+++ b/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
@@ -13465,11 +13465,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA06A8A97B81CB449FCF07970FCC7F2C" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e098a45b3705cfc2493009b57a546a4a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f29c99a9-2f7a-4302-86cb-05f0a42840fb" xmlns:ns3="418539d9-ccaa-4f07-ad3e-d267fe6a0194" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f840fee6fb3897cc9ba6eb64f1070675" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb"/>
-    <xsd:import namespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194"/>
+    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13478,19 +13478,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13501,18 +13500,18 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="12" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="13" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -13525,60 +13524,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="17" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13597,7 +13591,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -13723,7 +13717,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{897EC1D9-5BC8-4052-89E0-AD7D2F87086A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7F6138-ACD1-4F76-BB12-3059D7EEB277}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
+++ b/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
@@ -13465,8 +13465,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -13490,6 +13490,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13568,6 +13570,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -13597,6 +13606,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -13712,12 +13732,16 @@
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7F6138-ACD1-4F76-BB12-3059D7EEB277}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD64FCF7-FF7B-4EFD-8395-F2285959A46B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
+++ b/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
@@ -13741,7 +13741,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD64FCF7-FF7B-4EFD-8395-F2285959A46B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E8BFDB3-0EEE-4F6B-89FD-31A304133FA3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
+++ b/451_実装データモデル_行政/451-8-1_別表各種調達標準の比較.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiramotoKenji（IT総合戦略\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E4223-7626-4320-9039-5F76E8905C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994AA03-A24D-40BA-83D6-D77006AE80DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="対比表（入札公告）" sheetId="1" r:id="rId1"/>
@@ -6023,9 +6018,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6063,9 +6058,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6098,26 +6093,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6150,26 +6128,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6349,27 +6310,27 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
-    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="6.3828125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="30.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.61328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.765625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.61328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.84375" customWidth="1"/>
+    <col min="16" max="17" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6338,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>570</v>
       </c>
@@ -6399,7 +6360,7 @@
       <c r="P2" s="49"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="40.299999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
@@ -6441,7 +6402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="36" t="s">
         <v>15</v>
@@ -6489,7 +6450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
@@ -6526,7 +6487,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="55"/>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -6557,7 +6518,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -6602,7 +6563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -6635,7 +6596,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="55"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -6674,7 +6635,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="56"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -6711,7 +6672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -6738,7 +6699,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="55"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -6775,7 +6736,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="55"/>
     </row>
-    <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
@@ -6816,7 +6777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="33" t="s">
         <v>76</v>
@@ -6845,7 +6806,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="55"/>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="33" t="s">
         <v>80</v>
@@ -6874,7 +6835,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="55"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="33" t="s">
         <v>83</v>
@@ -6903,7 +6864,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="55"/>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="33" t="s">
         <v>85</v>
@@ -6932,7 +6893,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="55"/>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
         <v>88</v>
       </c>
@@ -6979,7 +6940,7 @@
       </c>
       <c r="Q18" s="56"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="4" t="s">
         <v>101</v>
@@ -7026,7 +6987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>113</v>
@@ -7055,7 +7016,7 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="55"/>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>116</v>
@@ -7084,7 +7045,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="55"/>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="4" t="s">
         <v>119</v>
@@ -7113,7 +7074,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="55"/>
     </row>
-    <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A23" s="72"/>
       <c r="B23" s="4" t="s">
         <v>122</v>
@@ -7156,7 +7117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>133</v>
@@ -7197,7 +7158,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="55"/>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A25" s="72"/>
       <c r="B25" s="4" t="s">
         <v>141</v>
@@ -7224,7 +7185,7 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="55"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A26" s="72"/>
       <c r="B26" s="4" t="s">
         <v>145</v>
@@ -7257,7 +7218,7 @@
       <c r="P26" s="34"/>
       <c r="Q26" s="55"/>
     </row>
-    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="4" t="s">
         <v>152</v>
@@ -7297,7 +7258,7 @@
       </c>
       <c r="Q27" s="55"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
       <c r="B28" s="4" t="s">
         <v>162</v>
@@ -7325,7 +7286,7 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="55"/>
     </row>
-    <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A29" s="72"/>
       <c r="B29" s="4" t="s">
         <v>167</v>
@@ -7353,7 +7314,7 @@
       <c r="P29" s="34"/>
       <c r="Q29" s="55"/>
     </row>
-    <row r="30" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
       <c r="B30" s="4" t="s">
         <v>172</v>
@@ -7381,7 +7342,7 @@
       <c r="P30" s="34"/>
       <c r="Q30" s="55"/>
     </row>
-    <row r="31" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
         <v>176</v>
       </c>
@@ -7417,7 +7378,7 @@
       <c r="P31" s="34"/>
       <c r="Q31" s="55"/>
     </row>
-    <row r="32" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
       <c r="B32" s="33" t="s">
         <v>184</v>
@@ -7447,7 +7408,7 @@
       <c r="P32" s="34"/>
       <c r="Q32" s="55"/>
     </row>
-    <row r="33" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
       <c r="B33" s="4" t="s">
         <v>189</v>
@@ -7475,7 +7436,7 @@
       <c r="P33" s="34"/>
       <c r="Q33" s="55"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
       <c r="B34" s="4" t="s">
         <v>192</v>
@@ -7501,7 +7462,7 @@
       </c>
       <c r="Q34" s="55"/>
     </row>
-    <row r="35" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
         <v>196</v>
       </c>
@@ -7531,7 +7492,7 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="55"/>
     </row>
-    <row r="36" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
       <c r="B36" s="4" t="s">
         <v>201</v>
@@ -7559,7 +7520,7 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="55"/>
     </row>
-    <row r="37" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
       <c r="B37" s="4" t="s">
         <v>204</v>
@@ -7587,7 +7548,7 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="55"/>
     </row>
-    <row r="38" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
       <c r="B38" s="4" t="s">
         <v>207</v>
@@ -7615,7 +7576,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="55"/>
     </row>
-    <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="4" t="s">
         <v>210</v>
@@ -7643,7 +7604,7 @@
       <c r="P39" s="34"/>
       <c r="Q39" s="55"/>
     </row>
-    <row r="40" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>213</v>
@@ -7671,7 +7632,7 @@
       <c r="P40" s="34"/>
       <c r="Q40" s="55"/>
     </row>
-    <row r="41" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="s">
         <v>216</v>
       </c>
@@ -7703,7 +7664,7 @@
       <c r="P41" s="34"/>
       <c r="Q41" s="55"/>
     </row>
-    <row r="42" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="4" t="s">
         <v>222</v>
@@ -7735,7 +7696,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="55"/>
     </row>
-    <row r="43" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
       <c r="B43" s="4" t="s">
         <v>227</v>
@@ -7765,7 +7726,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="55"/>
     </row>
-    <row r="44" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
       <c r="B44" s="4" t="s">
         <v>231</v>
@@ -7797,7 +7758,7 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="55"/>
     </row>
-    <row r="45" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
       <c r="B45" s="4" t="s">
         <v>236</v>
@@ -7829,7 +7790,7 @@
       <c r="P45" s="34"/>
       <c r="Q45" s="55"/>
     </row>
-    <row r="46" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
       <c r="B46" s="4" t="s">
         <v>241</v>
@@ -7857,7 +7818,7 @@
       <c r="P46" s="34"/>
       <c r="Q46" s="55"/>
     </row>
-    <row r="47" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
       <c r="B47" s="4" t="s">
         <v>245</v>
@@ -7885,7 +7846,7 @@
       <c r="P47" s="34"/>
       <c r="Q47" s="55"/>
     </row>
-    <row r="48" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
       <c r="B48" s="4" t="s">
         <v>250</v>
@@ -7917,7 +7878,7 @@
       <c r="P48" s="34"/>
       <c r="Q48" s="55"/>
     </row>
-    <row r="49" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
       <c r="B49" s="4" t="s">
         <v>257</v>
@@ -7945,7 +7906,7 @@
       <c r="P49" s="34"/>
       <c r="Q49" s="55"/>
     </row>
-    <row r="50" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="4" t="s">
         <v>262</v>
@@ -7971,7 +7932,7 @@
       <c r="P50" s="34"/>
       <c r="Q50" s="55"/>
     </row>
-    <row r="51" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="4" t="s">
         <v>266</v>
@@ -7997,7 +7958,7 @@
       <c r="P51" s="34"/>
       <c r="Q51" s="55"/>
     </row>
-    <row r="52" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A52" s="72"/>
       <c r="B52" s="4" t="s">
         <v>270</v>
@@ -8039,7 +8000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="4" t="s">
         <v>282</v>
@@ -8065,7 +8026,7 @@
       <c r="P53" s="34"/>
       <c r="Q53" s="55"/>
     </row>
-    <row r="54" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A54" s="72" t="s">
         <v>286</v>
       </c>
@@ -8109,7 +8070,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>299</v>
@@ -8137,7 +8098,7 @@
       <c r="P55" s="34"/>
       <c r="Q55" s="55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="72" t="s">
         <v>304</v>
       </c>
@@ -8167,7 +8128,7 @@
       <c r="P56" s="34"/>
       <c r="Q56" s="55"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="72"/>
       <c r="B57" s="4" t="s">
         <v>309</v>
@@ -8195,7 +8156,7 @@
       <c r="P57" s="34"/>
       <c r="Q57" s="55"/>
     </row>
-    <row r="58" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A58" s="72"/>
       <c r="B58" s="4" t="s">
         <v>313</v>
@@ -8225,7 +8186,7 @@
       <c r="P58" s="34"/>
       <c r="Q58" s="55"/>
     </row>
-    <row r="59" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A59" s="72"/>
       <c r="B59" s="4" t="s">
         <v>318</v>
@@ -8253,7 +8214,7 @@
       <c r="P59" s="34"/>
       <c r="Q59" s="55"/>
     </row>
-    <row r="60" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>322</v>
@@ -8279,7 +8240,7 @@
       <c r="P60" s="34"/>
       <c r="Q60" s="55"/>
     </row>
-    <row r="61" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A61" s="72"/>
       <c r="B61" s="4" t="s">
         <v>326</v>
@@ -8307,7 +8268,7 @@
       <c r="P61" s="34"/>
       <c r="Q61" s="55"/>
     </row>
-    <row r="62" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A62" s="72"/>
       <c r="B62" s="4" t="s">
         <v>331</v>
@@ -8335,7 +8296,7 @@
       <c r="P62" s="34"/>
       <c r="Q62" s="55"/>
     </row>
-    <row r="63" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="4" t="s">
         <v>336</v>
@@ -8365,7 +8326,7 @@
       <c r="P63" s="34"/>
       <c r="Q63" s="55"/>
     </row>
-    <row r="64" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A64" s="72"/>
       <c r="B64" s="4" t="s">
         <v>342</v>
@@ -8391,7 +8352,7 @@
       <c r="P64" s="34"/>
       <c r="Q64" s="55"/>
     </row>
-    <row r="65" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="4" t="s">
         <v>346</v>
@@ -8419,7 +8380,7 @@
       <c r="P65" s="34"/>
       <c r="Q65" s="55"/>
     </row>
-    <row r="66" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="4" t="s">
         <v>351</v>
@@ -8447,7 +8408,7 @@
       <c r="P66" s="34"/>
       <c r="Q66" s="55"/>
     </row>
-    <row r="67" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="4" t="s">
         <v>304</v>
@@ -8473,7 +8434,7 @@
       <c r="P67" s="34"/>
       <c r="Q67" s="55"/>
     </row>
-    <row r="68" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="4" t="s">
         <v>358</v>
@@ -8499,7 +8460,7 @@
       <c r="P68" s="34"/>
       <c r="Q68" s="55"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="4" t="s">
         <v>361</v>
@@ -8527,7 +8488,7 @@
       <c r="P69" s="34"/>
       <c r="Q69" s="55"/>
     </row>
-    <row r="70" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="73"/>
       <c r="B70" s="14" t="s">
         <v>365</v>
@@ -8561,7 +8522,7 @@
       <c r="P70" s="59"/>
       <c r="Q70" s="60"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -8577,7 +8538,7 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -8620,24 +8581,24 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.3828125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="30.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.61328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.765625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.61328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="16" max="17" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8645,7 +8606,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -8667,7 +8628,7 @@
       <c r="P2" s="49"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="40.299999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>372</v>
       </c>
@@ -8709,7 +8670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="14.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -8757,7 +8718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
@@ -8794,7 +8755,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="55"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -8825,7 +8786,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -8870,7 +8831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -8903,7 +8864,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="55"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -8942,7 +8903,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="56"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -8979,7 +8940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -9006,7 +8967,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="55"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="16" t="s">
         <v>62</v>
@@ -9043,7 +9004,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="55"/>
     </row>
-    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -9066,7 +9027,7 @@
       </c>
       <c r="Q13" s="56"/>
     </row>
-    <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="4" t="s">
         <v>67</v>
@@ -9107,7 +9068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="33" t="s">
         <v>76</v>
@@ -9136,7 +9097,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="55"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="33" t="s">
         <v>80</v>
@@ -9165,7 +9126,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="55"/>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="33" t="s">
         <v>83</v>
@@ -9194,7 +9155,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="55"/>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="33" t="s">
         <v>85</v>
@@ -9223,7 +9184,7 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="55"/>
     </row>
-    <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
         <v>88</v>
       </c>
@@ -9270,7 +9231,7 @@
       </c>
       <c r="Q19" s="56"/>
     </row>
-    <row r="20" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>101</v>
@@ -9317,7 +9278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>113</v>
@@ -9346,7 +9307,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="55"/>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="4" t="s">
         <v>116</v>
@@ -9375,7 +9336,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="55"/>
     </row>
-    <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="16" t="s">
         <v>119</v>
@@ -9404,7 +9365,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="55"/>
     </row>
-    <row r="24" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="53.15" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
       <c r="B24" s="4" t="s">
         <v>375</v>
@@ -9435,7 +9396,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="55"/>
     </row>
-    <row r="25" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="73"/>
       <c r="B25" s="14" t="s">
         <v>379</v>
@@ -9460,7 +9421,7 @@
       <c r="P25" s="59"/>
       <c r="Q25" s="60"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9502,23 +9463,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.61328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="30.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.61328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.84375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.61328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.4609375" customWidth="1"/>
+    <col min="16" max="17" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9526,7 +9487,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -9548,7 +9509,7 @@
       <c r="P2" s="49"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="40.299999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>382</v>
       </c>
@@ -9590,7 +9551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="14.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -9638,7 +9599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
@@ -9675,7 +9636,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -9706,7 +9667,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -9751,7 +9712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -9784,7 +9745,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -9823,7 +9784,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -9860,7 +9821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -9887,7 +9848,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -9924,7 +9885,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
@@ -9965,7 +9926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="33" t="s">
         <v>76</v>
@@ -9994,7 +9955,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="33" t="s">
         <v>80</v>
@@ -10023,7 +9984,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="33" t="s">
         <v>83</v>
@@ -10052,7 +10013,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="33" t="s">
         <v>85</v>
@@ -10081,7 +10042,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
         <v>88</v>
       </c>
@@ -10128,7 +10089,7 @@
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="4" t="s">
         <v>101</v>
@@ -10175,7 +10136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>113</v>
@@ -10204,7 +10165,7 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>116</v>
@@ -10233,7 +10194,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="16" t="s">
         <v>119</v>
@@ -10262,7 +10223,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="77"/>
       <c r="B23" s="4" t="s">
         <v>383</v>
@@ -10293,7 +10254,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="77"/>
       <c r="B24" s="4" t="s">
         <v>386</v>
@@ -10324,7 +10285,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A25" s="77"/>
       <c r="B25" s="4" t="s">
         <v>389</v>
@@ -10359,7 +10320,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="77"/>
       <c r="B26" s="4" t="s">
         <v>396</v>
@@ -10388,7 +10349,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
       <c r="B27" s="4" t="s">
         <v>400</v>
@@ -10421,7 +10382,7 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>
     </row>
-    <row r="28" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A28" s="77"/>
       <c r="B28" s="4" t="s">
         <v>405</v>
@@ -10452,7 +10413,7 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A29" s="77"/>
       <c r="B29" s="4" t="s">
         <v>409</v>
@@ -10493,7 +10454,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="4" t="s">
         <v>416</v>
@@ -10526,7 +10487,7 @@
       <c r="P30" s="34"/>
       <c r="Q30" s="34"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
       <c r="B31" s="4" t="s">
         <v>421</v>
@@ -10557,7 +10518,7 @@
       <c r="P31" s="34"/>
       <c r="Q31" s="34"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="77"/>
       <c r="B32" s="4" t="s">
         <v>425</v>
@@ -10588,7 +10549,7 @@
       <c r="P32" s="34"/>
       <c r="Q32" s="34"/>
     </row>
-    <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78"/>
       <c r="B33" s="14" t="s">
         <v>379</v>
@@ -10621,7 +10582,7 @@
       <c r="P33" s="34"/>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10663,23 +10624,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.61328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.61328125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="30.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.61328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3828125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.61328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.4609375" customWidth="1"/>
+    <col min="16" max="17" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10687,7 +10648,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -10709,7 +10670,7 @@
       <c r="P2" s="49"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="40.299999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>430</v>
       </c>
@@ -10751,7 +10712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="14.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -10799,7 +10760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
@@ -10836,7 +10797,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -10867,7 +10828,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -10912,7 +10873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -10945,7 +10906,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -10984,7 +10945,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -11021,7 +10982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -11048,7 +11009,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -11085,7 +11046,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
@@ -11126,7 +11087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="33" t="s">
         <v>76</v>
@@ -11155,7 +11116,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="33" t="s">
         <v>80</v>
@@ -11184,7 +11145,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="33" t="s">
         <v>83</v>
@@ -11213,7 +11174,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="33" t="s">
         <v>85</v>
@@ -11242,7 +11203,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
         <v>88</v>
       </c>
@@ -11289,7 +11250,7 @@
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="4" t="s">
         <v>101</v>
@@ -11336,7 +11297,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>113</v>
@@ -11365,7 +11326,7 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>116</v>
@@ -11394,7 +11355,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="16" t="s">
         <v>119</v>
@@ -11423,7 +11384,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
       <c r="B23" s="4" t="s">
         <v>431</v>
@@ -11454,7 +11415,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>436</v>
@@ -11485,7 +11446,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="73"/>
       <c r="B25" s="14" t="s">
         <v>440</v>
@@ -11516,7 +11477,7 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -11544,23 +11505,23 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.84375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" style="12" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="8" width="30.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.875" customWidth="1"/>
-    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="30.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.61328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.61328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3828125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.61328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.84375" customWidth="1"/>
+    <col min="16" max="17" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11568,7 +11529,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -11590,7 +11551,7 @@
       <c r="P2" s="49"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="40.299999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>444</v>
       </c>
@@ -11632,7 +11593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="14.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -11680,7 +11641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
@@ -11717,7 +11678,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -11748,7 +11709,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -11793,7 +11754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -11826,7 +11787,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -11865,7 +11826,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -11902,7 +11863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -11929,7 +11890,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -11966,7 +11927,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
@@ -12007,7 +11968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="33" t="s">
         <v>76</v>
@@ -12036,7 +11997,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="33" t="s">
         <v>80</v>
@@ -12065,7 +12026,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="33" t="s">
         <v>83</v>
@@ -12094,7 +12055,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="33" t="s">
         <v>85</v>
@@ -12123,7 +12084,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
         <v>88</v>
       </c>
@@ -12170,7 +12131,7 @@
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="4" t="s">
         <v>101</v>
@@ -12217,7 +12178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>113</v>
@@ -12246,7 +12207,7 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="4" t="s">
         <v>116</v>
@@ -12275,7 +12236,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="16" t="s">
         <v>119</v>
@@ -12304,7 +12265,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
       <c r="B23" s="4" t="s">
         <v>445</v>
@@ -12329,7 +12290,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="4" t="s">
         <v>448</v>
@@ -12358,7 +12319,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A25" s="72"/>
       <c r="B25" s="4" t="s">
         <v>452</v>
@@ -12387,7 +12348,7 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
     </row>
-    <row r="26" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73"/>
       <c r="B26" s="14" t="s">
         <v>456</v>
@@ -12439,14 +12400,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="54.25" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" customWidth="1"/>
+    <col min="3" max="3" width="30.3828125" customWidth="1"/>
+    <col min="4" max="4" width="54.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>461</v>
       </c>
@@ -12456,7 +12417,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>463</v>
       </c>
@@ -12473,7 +12434,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="225.9" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="6" t="s">
         <v>466</v>
@@ -12486,7 +12447,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -12501,7 +12462,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>470</v>
       </c>
@@ -12516,7 +12477,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="81"/>
       <c r="B6" s="6" t="s">
         <v>83</v>
@@ -12527,7 +12488,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -12544,7 +12505,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>476</v>
       </c>
@@ -12559,7 +12520,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>480</v>
       </c>
@@ -12574,7 +12535,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="6" t="s">
         <v>483</v>
@@ -12585,7 +12546,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -12600,7 +12561,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="2" t="s">
         <v>51</v>
@@ -12615,7 +12576,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="2" t="s">
         <v>59</v>
@@ -12630,7 +12591,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>489</v>
       </c>
@@ -12647,7 +12608,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
       <c r="B15" s="2" t="s">
         <v>67</v>
@@ -12660,7 +12621,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="6" t="s">
         <v>70</v>
@@ -12669,7 +12630,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="6" t="s">
         <v>494</v>
@@ -12678,7 +12639,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="6" t="s">
         <v>85</v>
@@ -12687,7 +12648,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="2" t="s">
         <v>89</v>
@@ -12702,7 +12663,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20" s="2" t="s">
         <v>101</v>
@@ -12717,7 +12678,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
       <c r="B21" s="2" t="s">
         <v>113</v>
@@ -12728,7 +12689,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="2" t="s">
         <v>122</v>
@@ -12743,7 +12704,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="39.9" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="2" t="s">
         <v>133</v>
@@ -12758,7 +12719,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="2" t="s">
         <v>145</v>
@@ -12771,7 +12732,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="2" t="s">
         <v>152</v>
@@ -12786,7 +12747,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="79"/>
       <c r="B26" s="2" t="s">
         <v>167</v>
@@ -12799,7 +12760,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="79"/>
       <c r="B27" s="2" t="s">
         <v>172</v>
@@ -12812,7 +12773,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="2" t="s">
         <v>177</v>
@@ -12827,7 +12788,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="2" t="s">
         <v>358</v>
@@ -12840,7 +12801,7 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A30" s="79"/>
       <c r="B30" s="2" t="s">
         <v>241</v>
@@ -12853,7 +12814,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
       <c r="B31" s="2" t="s">
         <v>250</v>
@@ -12866,7 +12827,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>512</v>
       </c>
@@ -12881,7 +12842,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="2" t="s">
         <v>201</v>
@@ -12894,7 +12855,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="2" t="s">
         <v>204</v>
@@ -12907,7 +12868,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="79"/>
       <c r="B35" s="2" t="s">
         <v>207</v>
@@ -12920,7 +12881,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="79"/>
       <c r="B36" s="2" t="s">
         <v>210</v>
@@ -12933,7 +12894,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="79"/>
       <c r="B37" s="2" t="s">
         <v>213</v>
@@ -12946,7 +12907,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>525</v>
       </c>
@@ -12961,7 +12922,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="79"/>
       <c r="B39" s="2" t="s">
         <v>257</v>
@@ -12974,7 +12935,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A40" s="79"/>
       <c r="B40" s="2" t="s">
         <v>262</v>
@@ -12987,7 +12948,7 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A41" s="79"/>
       <c r="B41" s="2" t="s">
         <v>266</v>
@@ -13000,7 +12961,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>216</v>
       </c>
@@ -13015,7 +12976,7 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A43" s="79"/>
       <c r="B43" s="2" t="s">
         <v>222</v>
@@ -13028,7 +12989,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="79"/>
       <c r="B44" s="2" t="s">
         <v>227</v>
@@ -13041,7 +13002,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="79"/>
       <c r="B45" s="2" t="s">
         <v>231</v>
@@ -13054,7 +13015,7 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="79"/>
       <c r="B46" s="2" t="s">
         <v>236</v>
@@ -13067,7 +13028,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
       <c r="B47" s="2" t="s">
         <v>275</v>
@@ -13082,7 +13043,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="79"/>
       <c r="B48" s="2" t="s">
         <v>162</v>
@@ -13095,7 +13056,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
       <c r="B49" s="2" t="s">
         <v>351</v>
@@ -13108,7 +13069,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="79"/>
       <c r="B50" s="2" t="s">
         <v>282</v>
@@ -13121,7 +13082,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="26.6" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
         <v>286</v>
       </c>
@@ -13138,7 +13099,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="79"/>
       <c r="B52" s="2" t="s">
         <v>299</v>
@@ -13151,7 +13112,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="79"/>
       <c r="B53" s="2" t="s">
         <v>336</v>
@@ -13164,7 +13125,7 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
         <v>304</v>
       </c>
@@ -13179,7 +13140,7 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="79"/>
       <c r="B55" s="2" t="s">
         <v>309</v>
@@ -13192,7 +13153,7 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="79"/>
       <c r="B56" s="2" t="s">
         <v>313</v>
@@ -13205,7 +13166,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="79"/>
       <c r="B57" s="2" t="s">
         <v>318</v>
@@ -13218,7 +13179,7 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="79"/>
       <c r="B58" s="2" t="s">
         <v>322</v>
@@ -13231,7 +13192,7 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="79"/>
       <c r="B59" s="2" t="s">
         <v>326</v>
@@ -13244,7 +13205,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
       <c r="B60" s="2" t="s">
         <v>331</v>
@@ -13257,7 +13218,7 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
       <c r="B61" s="2" t="s">
         <v>342</v>
@@ -13270,7 +13231,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
       <c r="B62" s="2" t="s">
         <v>346</v>
@@ -13283,7 +13244,7 @@
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
       <c r="B63" s="2" t="s">
         <v>304</v>
@@ -13296,7 +13257,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
       <c r="B64" s="2" t="s">
         <v>361</v>
@@ -13309,7 +13270,7 @@
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="79"/>
       <c r="B65" s="2" t="s">
         <v>365</v>
@@ -13324,7 +13285,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="79" t="s">
         <v>564</v>
       </c>
@@ -13335,7 +13296,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="79"/>
       <c r="B67" s="6" t="s">
         <v>405</v>
@@ -13344,7 +13305,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="79"/>
       <c r="B68" s="6" t="s">
         <v>409</v>
@@ -13353,7 +13314,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="79"/>
       <c r="B69" s="6" t="s">
         <v>416</v>
@@ -13362,7 +13323,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="79"/>
       <c r="B70" s="6" t="s">
         <v>421</v>
@@ -13373,7 +13334,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="79"/>
       <c r="B71" s="6" t="s">
         <v>379</v>
@@ -13382,7 +13343,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="79" t="s">
         <v>470</v>
       </c>
@@ -13393,7 +13354,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="79"/>
       <c r="B73" s="6" t="s">
         <v>566</v>
@@ -13402,7 +13363,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="79"/>
       <c r="B74" s="6" t="s">
         <v>567</v>
@@ -13411,7 +13372,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="79" t="s">
         <v>568</v>
       </c>
@@ -13422,7 +13383,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="79"/>
       <c r="B76" s="6" t="s">
         <v>445</v>
@@ -13431,7 +13392,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="79"/>
       <c r="B77" s="6" t="s">
         <v>456</v>
@@ -13465,11 +13426,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D4BA49431D4D9249A6509499E059C03E" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ab603acd520aec003329a8cc5e5a3c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2731dd5c1c8e876b3faee75002f54a14" ns2:_="">
+    <xsd:import namespace="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13478,20 +13437,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13499,21 +13446,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -13526,97 +13459,15 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -13729,25 +13580,18 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E8BFDB3-0EEE-4F6B-89FD-31A304133FA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F46C22A-2968-4EA6-9277-437FF6118C92}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99709993-19C8-4C25-A967-82EB235B4318}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7946B62F-D72B-4122-AAD3-7ED2C24BA672}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C9687D-FF33-4355-BB3D-7E7B0AEC51EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283D2CF4-6C95-4566-92AA-DFD81EE1523F}"/>
 </file>